--- a/all_data.xlsx
+++ b/all_data.xlsx
@@ -495,10 +495,14 @@
   <dimension ref="A1:D1917"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
